--- a/策划案&需求/2.5.xlsx
+++ b/策划案&需求/2.5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="1" r:id="rId1"/>
@@ -2377,28 +2377,204 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>说明：主动技能，使用后除自己外所有人头顶出现t1秒读条，读条完毕后玩家移动方向与操作方向相反（如遥感向右则向左转），持续t2秒，CD：t3秒。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：主动技能，使用后除自己以外所有玩家视野变小为自身周围一圈，持续t1秒，CD：t2秒。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：主动技能，使用后除自己所有人失去当前血量的一定百分比，剩余血量四舍五入至整数， CD：t秒。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：主动技能，自身周围形成圆形保护罩，保护罩可以反弹所有接触到的光线，且只会与光线发生碰撞，不与边界和玩家发生碰撞，持续t1秒，CD：t2秒。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>黑夜降临</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>在策划案中增加技能说明</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>说明：主动技能，自身周围形成圆形保护罩，保护罩可以反弹所有接触到的光线，且只会与光线发生碰撞，不与边界和玩家发生碰撞，持续t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒，CD：t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>说明：主动技能，使用后除自己外所有人头顶出现t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒读条，读条完毕后玩家移动方向与操作方向相反（如遥感向右则向左转），持续t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒，CD：t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>说明：主动技能，使用后除自己所有人失去当前血量的一定百分比，剩余血量四舍五入至整数， CD：t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>说明：主动技能，使用后除自己以外所有玩家视野变小为自身周围一圈，持续t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒，CD：t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3611,18 +3787,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3638,74 +3883,11 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3713,13 +3895,19 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3732,18 +3920,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5790,7 +5966,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>330908</xdr:colOff>
       <xdr:row>385</xdr:row>
-      <xdr:rowOff>129217</xdr:rowOff>
+      <xdr:rowOff>129216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5884,7 +6060,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>819541</xdr:colOff>
       <xdr:row>441</xdr:row>
-      <xdr:rowOff>182244</xdr:rowOff>
+      <xdr:rowOff>182245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6744,221 +6920,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="125"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="122" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="122" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="120" t="s">
+      <c r="A10" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="109" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="116"/>
@@ -7069,198 +7245,181 @@
       <c r="J23" s="119"/>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="115"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="122"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="104" t="s">
+      <c r="B25" s="123"/>
+      <c r="C25" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="111" t="s">
+      <c r="D25" s="125"/>
+      <c r="E25" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="112" t="s">
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="104" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="104" t="s">
+      <c r="D26" s="125"/>
+      <c r="E26" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="106"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="107" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="132"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="104" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="124" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="104" t="s">
+      <c r="D27" s="125"/>
+      <c r="E27" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="107" t="s">
+      <c r="F27" s="129"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="130" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="108"/>
-      <c r="J27" s="109"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="132"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="127" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="D28" s="105"/>
-      <c r="E28" s="104" t="s">
+      <c r="D28" s="125"/>
+      <c r="E28" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="107" t="s">
+      <c r="F28" s="129"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="130" t="s">
         <v>330</v>
       </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="110">
+      <c r="A29" s="133">
         <v>43696</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="104" t="s">
+      <c r="B29" s="123"/>
+      <c r="C29" s="124" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="111" t="s">
+      <c r="D29" s="125"/>
+      <c r="E29" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="112" t="s">
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="110">
+      <c r="A30" s="133">
         <v>43696</v>
       </c>
-      <c r="B30" s="111"/>
-      <c r="C30" s="104" t="s">
+      <c r="B30" s="123"/>
+      <c r="C30" s="124" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="111" t="s">
-        <v>417</v>
-      </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112" t="s">
+      <c r="D30" s="125"/>
+      <c r="E30" s="123" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="126" t="s">
         <v>268</v>
       </c>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="102"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="132"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="102"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:G28"/>
@@ -7273,22 +7432,39 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7299,8 +7475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V505"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A478" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J471" sqref="J471"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A403" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L411" sqref="L411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7326,27 +7502,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
@@ -8287,10 +8463,10 @@
       <c r="E193" s="66"/>
     </row>
     <row r="200" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="J200" s="135" t="s">
+      <c r="J200" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="K200" s="135"/>
+      <c r="K200" s="137"/>
       <c r="L200" s="87" t="s">
         <v>273</v>
       </c>
@@ -8299,10 +8475,10 @@
       </c>
     </row>
     <row r="201" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J201" s="136" t="s">
+      <c r="J201" s="134" t="s">
         <v>296</v>
       </c>
-      <c r="K201" s="136"/>
+      <c r="K201" s="134"/>
       <c r="L201" s="85" t="s">
         <v>297</v>
       </c>
@@ -8311,10 +8487,10 @@
       </c>
     </row>
     <row r="202" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J202" s="136" t="s">
+      <c r="J202" s="134" t="s">
         <v>284</v>
       </c>
-      <c r="K202" s="136"/>
+      <c r="K202" s="134"/>
       <c r="L202" s="85" t="s">
         <v>286</v>
       </c>
@@ -8323,10 +8499,10 @@
       </c>
     </row>
     <row r="203" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J203" s="136" t="s">
+      <c r="J203" s="134" t="s">
         <v>285</v>
       </c>
-      <c r="K203" s="136"/>
+      <c r="K203" s="134"/>
       <c r="L203" s="85" t="s">
         <v>287</v>
       </c>
@@ -8335,10 +8511,10 @@
       </c>
     </row>
     <row r="204" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J204" s="137" t="s">
+      <c r="J204" s="138" t="s">
         <v>316</v>
       </c>
-      <c r="K204" s="137"/>
+      <c r="K204" s="138"/>
       <c r="L204" s="92" t="s">
         <v>320</v>
       </c>
@@ -8351,10 +8527,10 @@
       <c r="F205" s="85"/>
       <c r="G205" s="85"/>
       <c r="H205" s="85"/>
-      <c r="J205" s="136" t="s">
+      <c r="J205" s="134" t="s">
         <v>275</v>
       </c>
-      <c r="K205" s="136"/>
+      <c r="K205" s="134"/>
       <c r="L205" s="85" t="s">
         <v>293</v>
       </c>
@@ -8367,10 +8543,10 @@
       <c r="F206" s="85"/>
       <c r="G206" s="85"/>
       <c r="H206" s="85"/>
-      <c r="J206" s="136" t="s">
+      <c r="J206" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="K206" s="136"/>
+      <c r="K206" s="134"/>
       <c r="L206" s="85" t="s">
         <v>274</v>
       </c>
@@ -8383,10 +8559,10 @@
       <c r="F207" s="85"/>
       <c r="G207" s="85"/>
       <c r="H207" s="85"/>
-      <c r="J207" s="136" t="s">
+      <c r="J207" s="134" t="s">
         <v>277</v>
       </c>
-      <c r="K207" s="136"/>
+      <c r="K207" s="134"/>
       <c r="L207" s="85" t="s">
         <v>282</v>
       </c>
@@ -8399,10 +8575,10 @@
       <c r="F208" s="85"/>
       <c r="G208" s="85"/>
       <c r="H208" s="85"/>
-      <c r="J208" s="136" t="s">
+      <c r="J208" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="K208" s="136"/>
+      <c r="K208" s="134"/>
       <c r="L208" s="85" t="s">
         <v>280</v>
       </c>
@@ -8415,10 +8591,10 @@
       <c r="F209" s="85"/>
       <c r="G209" s="85"/>
       <c r="H209" s="85"/>
-      <c r="J209" s="136" t="s">
+      <c r="J209" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="K209" s="136"/>
+      <c r="K209" s="134"/>
       <c r="L209" s="85" t="s">
         <v>281</v>
       </c>
@@ -8431,10 +8607,10 @@
       <c r="F210" s="85"/>
       <c r="G210" s="85"/>
       <c r="H210" s="85"/>
-      <c r="J210" s="138" t="s">
+      <c r="J210" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="K210" s="138"/>
+      <c r="K210" s="135"/>
       <c r="L210" s="86" t="s">
         <v>288</v>
       </c>
@@ -8844,11 +9020,11 @@
       <c r="D311" s="23"/>
       <c r="E311" s="23"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A312" s="46"/>
       <c r="D312" s="23"/>
       <c r="E312" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="23"/>
@@ -9155,9 +9331,9 @@
     <row r="348" spans="4:15" x14ac:dyDescent="0.15">
       <c r="E348" s="23"/>
     </row>
-    <row r="349" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="349" spans="4:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E349" s="46" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="23"/>
@@ -9427,9 +9603,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:14" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E409" s="46" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F409" s="23"/>
       <c r="G409" s="23"/>
@@ -9651,9 +9827,9 @@
         <v>410</v>
       </c>
     </row>
-    <row r="465" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="465" spans="5:12" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E465" s="46" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F465" s="23"/>
       <c r="G465" s="23"/>
@@ -9857,18 +10033,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J204:K204"/>
     <mergeCell ref="J208:K208"/>
     <mergeCell ref="J209:K209"/>
     <mergeCell ref="J210:K210"/>
     <mergeCell ref="J201:K201"/>
     <mergeCell ref="J203:K203"/>
     <mergeCell ref="J202:K202"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J204:K204"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9980,10 +10156,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="146"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -9996,58 +10172,58 @@
       <c r="G2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="140"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="142"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="144"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="144"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -10581,16 +10757,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -10626,10 +10802,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="146"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -10642,54 +10818,54 @@
       <c r="G2" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="140"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="142"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="144"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="142"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -11819,10 +11995,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="146"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -11840,10 +12016,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="144"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -11851,8 +12027,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -11860,8 +12036,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -11869,8 +12045,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
@@ -12409,7 +12585,7 @@
         <v>344</v>
       </c>
       <c r="E1" s="99" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="99" t="s">
         <v>345</v>

--- a/策划案&需求/2.5.xlsx
+++ b/策划案&需求/2.5.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="427">
   <si>
     <t>项目组别</t>
   </si>
@@ -2573,6 +2573,146 @@
         <charset val="134"/>
       </rPr>
       <t>秒。</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1_1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始暂定（秒）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1_2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2_1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2_2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2_3</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_1</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3_2</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4_1</t>
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3482,7 +3622,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3787,6 +3927,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3796,106 +4008,55 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3908,18 +4069,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5919,7 +6068,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1084385</xdr:colOff>
       <xdr:row>344</xdr:row>
-      <xdr:rowOff>109904</xdr:rowOff>
+      <xdr:rowOff>109903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5966,7 +6115,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>330908</xdr:colOff>
       <xdr:row>385</xdr:row>
-      <xdr:rowOff>129216</xdr:rowOff>
+      <xdr:rowOff>129217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6060,7 +6209,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>819541</xdr:colOff>
       <xdr:row>441</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:rowOff>182244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6181,16 +6330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>845344</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>759392</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>646283</xdr:colOff>
       <xdr:row>328</xdr:row>
-      <xdr:rowOff>140112</xdr:rowOff>
+      <xdr:rowOff>38908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6207,7 +6356,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4196953" y="66347578"/>
+          <a:off x="3024188" y="66371390"/>
           <a:ext cx="1819048" cy="3057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6219,14 +6368,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>349</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>625078</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3303</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>759350</xdr:colOff>
       <xdr:row>368</xdr:row>
       <xdr:rowOff>3095</xdr:rowOff>
     </xdr:to>
@@ -6245,7 +6394,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4202906" y="73783031"/>
+          <a:off x="2803922" y="74074735"/>
           <a:ext cx="2152381" cy="3819048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6257,16 +6406,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>636984</xdr:colOff>
-      <xdr:row>410</xdr:row>
-      <xdr:rowOff>5953</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184547</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1056970</xdr:colOff>
-      <xdr:row>424</xdr:row>
-      <xdr:rowOff>50827</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>997438</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>128217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6283,7 +6432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2815828" y="86356031"/>
+          <a:off x="1678781" y="86558437"/>
           <a:ext cx="2438095" cy="2961905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6295,16 +6444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>465</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232173</xdr:colOff>
+      <xdr:row>466</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>848611</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1045064</xdr:colOff>
       <xdr:row>476</xdr:row>
-      <xdr:rowOff>62828</xdr:rowOff>
+      <xdr:rowOff>86640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6321,7 +6470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2607469" y="97964625"/>
+          <a:off x="1726407" y="98488499"/>
           <a:ext cx="2438095" cy="2200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6927,262 +7076,262 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="128"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106" t="s">
+      <c r="B8" s="136"/>
+      <c r="C8" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="130"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="134" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="120"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="120"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
@@ -7233,193 +7382,210 @@
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="118"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="124" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="123" t="s">
+      <c r="D25" s="108"/>
+      <c r="E25" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="126" t="s">
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="124" t="s">
+      <c r="B26" s="106"/>
+      <c r="C26" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="124" t="s">
+      <c r="D26" s="108"/>
+      <c r="E26" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="130" t="s">
+      <c r="F26" s="109"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="131"/>
-      <c r="J26" s="132"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="124" t="s">
+      <c r="B27" s="106"/>
+      <c r="C27" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="124" t="s">
+      <c r="D27" s="108"/>
+      <c r="E27" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="130" t="s">
+      <c r="F27" s="109"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="I27" s="131"/>
-      <c r="J27" s="132"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="112"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="127" t="s">
+      <c r="A28" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="124" t="s">
+      <c r="B28" s="106"/>
+      <c r="C28" s="107" t="s">
         <v>328</v>
       </c>
-      <c r="D28" s="125"/>
-      <c r="E28" s="124" t="s">
+      <c r="D28" s="108"/>
+      <c r="E28" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="130" t="s">
+      <c r="F28" s="109"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="I28" s="131"/>
-      <c r="J28" s="132"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="133">
+      <c r="A29" s="113">
         <v>43696</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="124" t="s">
+      <c r="B29" s="114"/>
+      <c r="C29" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="125"/>
-      <c r="E29" s="123" t="s">
+      <c r="D29" s="108"/>
+      <c r="E29" s="114" t="s">
         <v>400</v>
       </c>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="126" t="s">
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115" t="s">
         <v>401</v>
       </c>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="133">
+      <c r="A30" s="113">
         <v>43696</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="124" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="107" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="123" t="s">
+      <c r="D30" s="108"/>
+      <c r="E30" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="126" t="s">
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="127"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="132"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="112"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="132"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:G28"/>
@@ -7432,39 +7598,22 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7475,8 +7624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V505"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A403" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L411" sqref="L411"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A496" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M470" sqref="M470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7502,27 +7651,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
@@ -8463,10 +8612,10 @@
       <c r="E193" s="66"/>
     </row>
     <row r="200" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="J200" s="137" t="s">
+      <c r="J200" s="138" t="s">
         <v>272</v>
       </c>
-      <c r="K200" s="137"/>
+      <c r="K200" s="138"/>
       <c r="L200" s="87" t="s">
         <v>273</v>
       </c>
@@ -8475,10 +8624,10 @@
       </c>
     </row>
     <row r="201" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J201" s="134" t="s">
+      <c r="J201" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="K201" s="134"/>
+      <c r="K201" s="139"/>
       <c r="L201" s="85" t="s">
         <v>297</v>
       </c>
@@ -8487,10 +8636,10 @@
       </c>
     </row>
     <row r="202" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J202" s="134" t="s">
+      <c r="J202" s="139" t="s">
         <v>284</v>
       </c>
-      <c r="K202" s="134"/>
+      <c r="K202" s="139"/>
       <c r="L202" s="85" t="s">
         <v>286</v>
       </c>
@@ -8499,10 +8648,10 @@
       </c>
     </row>
     <row r="203" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J203" s="134" t="s">
+      <c r="J203" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="K203" s="134"/>
+      <c r="K203" s="139"/>
       <c r="L203" s="85" t="s">
         <v>287</v>
       </c>
@@ -8511,10 +8660,10 @@
       </c>
     </row>
     <row r="204" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J204" s="138" t="s">
+      <c r="J204" s="140" t="s">
         <v>316</v>
       </c>
-      <c r="K204" s="138"/>
+      <c r="K204" s="140"/>
       <c r="L204" s="92" t="s">
         <v>320</v>
       </c>
@@ -8527,10 +8676,10 @@
       <c r="F205" s="85"/>
       <c r="G205" s="85"/>
       <c r="H205" s="85"/>
-      <c r="J205" s="134" t="s">
+      <c r="J205" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="K205" s="134"/>
+      <c r="K205" s="139"/>
       <c r="L205" s="85" t="s">
         <v>293</v>
       </c>
@@ -8543,10 +8692,10 @@
       <c r="F206" s="85"/>
       <c r="G206" s="85"/>
       <c r="H206" s="85"/>
-      <c r="J206" s="134" t="s">
+      <c r="J206" s="139" t="s">
         <v>276</v>
       </c>
-      <c r="K206" s="134"/>
+      <c r="K206" s="139"/>
       <c r="L206" s="85" t="s">
         <v>274</v>
       </c>
@@ -8559,10 +8708,10 @@
       <c r="F207" s="85"/>
       <c r="G207" s="85"/>
       <c r="H207" s="85"/>
-      <c r="J207" s="134" t="s">
+      <c r="J207" s="139" t="s">
         <v>277</v>
       </c>
-      <c r="K207" s="134"/>
+      <c r="K207" s="139"/>
       <c r="L207" s="85" t="s">
         <v>282</v>
       </c>
@@ -8575,10 +8724,10 @@
       <c r="F208" s="85"/>
       <c r="G208" s="85"/>
       <c r="H208" s="85"/>
-      <c r="J208" s="134" t="s">
+      <c r="J208" s="139" t="s">
         <v>278</v>
       </c>
-      <c r="K208" s="134"/>
+      <c r="K208" s="139"/>
       <c r="L208" s="85" t="s">
         <v>280</v>
       </c>
@@ -8591,10 +8740,10 @@
       <c r="F209" s="85"/>
       <c r="G209" s="85"/>
       <c r="H209" s="85"/>
-      <c r="J209" s="134" t="s">
+      <c r="J209" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="K209" s="134"/>
+      <c r="K209" s="139"/>
       <c r="L209" s="85" t="s">
         <v>281</v>
       </c>
@@ -8607,10 +8756,10 @@
       <c r="F210" s="85"/>
       <c r="G210" s="85"/>
       <c r="H210" s="85"/>
-      <c r="J210" s="135" t="s">
+      <c r="J210" s="141" t="s">
         <v>283</v>
       </c>
-      <c r="K210" s="135"/>
+      <c r="K210" s="141"/>
       <c r="L210" s="86" t="s">
         <v>288</v>
       </c>
@@ -9076,13 +9225,17 @@
       <c r="H315" s="23"/>
       <c r="I315" s="23"/>
       <c r="J315" s="23"/>
-      <c r="K315" s="23"/>
-      <c r="L315" s="23"/>
+      <c r="K315" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="L315" s="103" t="s">
+        <v>419</v>
+      </c>
       <c r="M315" s="23"/>
       <c r="N315" s="23"/>
       <c r="O315" s="23"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A316" s="46"/>
       <c r="D316" s="23"/>
       <c r="E316" s="46"/>
@@ -9091,13 +9244,17 @@
       <c r="H316" s="23"/>
       <c r="I316" s="23"/>
       <c r="J316" s="23"/>
-      <c r="K316" s="23"/>
-      <c r="L316" s="23"/>
+      <c r="K316" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="L316" s="84">
+        <v>5</v>
+      </c>
       <c r="M316" s="23"/>
       <c r="N316" s="23"/>
       <c r="O316" s="23"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A317" s="46"/>
       <c r="D317" s="23"/>
       <c r="E317" s="46"/>
@@ -9106,8 +9263,12 @@
       <c r="H317" s="23"/>
       <c r="I317" s="23"/>
       <c r="J317" s="23"/>
-      <c r="K317" s="23"/>
-      <c r="L317" s="23"/>
+      <c r="K317" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="L317" s="84">
+        <v>45</v>
+      </c>
       <c r="M317" s="23"/>
       <c r="N317" s="23"/>
       <c r="O317" s="23"/>
@@ -9121,8 +9282,8 @@
       <c r="H318" s="23"/>
       <c r="I318" s="23"/>
       <c r="J318" s="23"/>
-      <c r="K318" s="23"/>
-      <c r="L318" s="23"/>
+      <c r="K318" s="102"/>
+      <c r="L318" s="84"/>
       <c r="M318" s="23"/>
       <c r="N318" s="23"/>
       <c r="O318" s="23"/>
@@ -9136,8 +9297,8 @@
       <c r="H319" s="23"/>
       <c r="I319" s="23"/>
       <c r="J319" s="23"/>
-      <c r="K319" s="23"/>
-      <c r="L319" s="23"/>
+      <c r="K319" s="104"/>
+      <c r="L319" s="104"/>
       <c r="M319" s="23"/>
       <c r="N319" s="23"/>
       <c r="O319" s="23"/>
@@ -9151,8 +9312,8 @@
       <c r="H320" s="23"/>
       <c r="I320" s="23"/>
       <c r="J320" s="23"/>
-      <c r="K320" s="23"/>
-      <c r="L320" s="23"/>
+      <c r="K320" s="102"/>
+      <c r="L320" s="84"/>
       <c r="M320" s="23"/>
       <c r="N320" s="23"/>
       <c r="O320" s="23"/>
@@ -9166,8 +9327,8 @@
       <c r="H321" s="23"/>
       <c r="I321" s="23"/>
       <c r="J321" s="23"/>
-      <c r="K321" s="23"/>
-      <c r="L321" s="23"/>
+      <c r="K321" s="102"/>
+      <c r="L321" s="102"/>
       <c r="M321" s="23"/>
       <c r="N321" s="23"/>
       <c r="O321" s="23"/>
@@ -9181,8 +9342,8 @@
       <c r="H322" s="23"/>
       <c r="I322" s="23"/>
       <c r="J322" s="23"/>
-      <c r="K322" s="23"/>
-      <c r="L322" s="23"/>
+      <c r="K322" s="102"/>
+      <c r="L322" s="84"/>
       <c r="M322" s="23"/>
       <c r="N322" s="23"/>
       <c r="O322" s="23"/>
@@ -9196,8 +9357,8 @@
       <c r="H323" s="23"/>
       <c r="I323" s="23"/>
       <c r="J323" s="23"/>
-      <c r="K323" s="23"/>
-      <c r="L323" s="23"/>
+      <c r="K323" s="102"/>
+      <c r="L323" s="84"/>
       <c r="M323" s="23"/>
       <c r="N323" s="23"/>
       <c r="O323" s="23"/>
@@ -9211,8 +9372,8 @@
       <c r="H324" s="23"/>
       <c r="I324" s="23"/>
       <c r="J324" s="23"/>
-      <c r="K324" s="23"/>
-      <c r="L324" s="23"/>
+      <c r="K324" s="102"/>
+      <c r="L324" s="102"/>
       <c r="M324" s="23"/>
       <c r="N324" s="23"/>
       <c r="O324" s="23"/>
@@ -9226,8 +9387,8 @@
       <c r="H325" s="23"/>
       <c r="I325" s="23"/>
       <c r="J325" s="23"/>
-      <c r="K325" s="23"/>
-      <c r="L325" s="23"/>
+      <c r="K325" s="102"/>
+      <c r="L325" s="102"/>
       <c r="M325" s="23"/>
       <c r="N325" s="23"/>
       <c r="O325" s="23"/>
@@ -9379,47 +9540,63 @@
       <c r="H352" s="23"/>
       <c r="I352" s="23"/>
       <c r="J352" s="23"/>
-      <c r="K352" s="23"/>
-      <c r="L352" s="23"/>
+      <c r="K352" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="L352" s="103" t="s">
+        <v>419</v>
+      </c>
       <c r="M352" s="23"/>
       <c r="N352" s="23"/>
       <c r="O352" s="23"/>
     </row>
-    <row r="353" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="353" spans="5:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E353" s="46"/>
       <c r="F353" s="23"/>
       <c r="G353" s="23"/>
       <c r="H353" s="23"/>
       <c r="I353" s="23"/>
       <c r="J353" s="23"/>
-      <c r="K353" s="23"/>
-      <c r="L353" s="23"/>
+      <c r="K353" s="102" t="s">
+        <v>421</v>
+      </c>
+      <c r="L353" s="84">
+        <v>3</v>
+      </c>
       <c r="M353" s="23"/>
       <c r="N353" s="23"/>
       <c r="O353" s="23"/>
     </row>
-    <row r="354" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="354" spans="5:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E354" s="46"/>
       <c r="F354" s="23"/>
       <c r="G354" s="23"/>
       <c r="H354" s="23"/>
       <c r="I354" s="23"/>
       <c r="J354" s="23"/>
-      <c r="K354" s="23"/>
-      <c r="L354" s="23"/>
+      <c r="K354" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="L354" s="84">
+        <v>5</v>
+      </c>
       <c r="M354" s="23"/>
       <c r="N354" s="23"/>
       <c r="O354" s="23"/>
     </row>
-    <row r="355" spans="5:15" x14ac:dyDescent="0.15">
+    <row r="355" spans="5:15" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E355" s="46"/>
       <c r="F355" s="23"/>
       <c r="G355" s="23"/>
       <c r="H355" s="23"/>
       <c r="I355" s="23"/>
       <c r="J355" s="23"/>
-      <c r="K355" s="23"/>
-      <c r="L355" s="23"/>
+      <c r="K355" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L355" s="50">
+        <v>45</v>
+      </c>
       <c r="M355" s="23"/>
       <c r="N355" s="23"/>
       <c r="O355" s="23"/>
@@ -9635,32 +9812,44 @@
       <c r="G411" s="23"/>
       <c r="H411" s="23"/>
       <c r="I411" s="23"/>
-      <c r="J411" s="23"/>
-      <c r="K411" s="23"/>
+      <c r="J411" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="K411" s="103" t="s">
+        <v>419</v>
+      </c>
       <c r="L411" s="23"/>
       <c r="M411" s="23"/>
       <c r="N411" s="23"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:14" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E412" s="46"/>
       <c r="F412" s="23"/>
       <c r="G412" s="23"/>
       <c r="H412" s="23"/>
       <c r="I412" s="23"/>
-      <c r="J412" s="23"/>
-      <c r="K412" s="23"/>
+      <c r="J412" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="K412" s="84">
+        <v>5</v>
+      </c>
       <c r="L412" s="23"/>
       <c r="M412" s="23"/>
       <c r="N412" s="23"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:14" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E413" s="46"/>
       <c r="F413" s="23"/>
       <c r="G413" s="23"/>
       <c r="H413" s="23"/>
       <c r="I413" s="23"/>
-      <c r="J413" s="23"/>
-      <c r="K413" s="23"/>
+      <c r="J413" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="K413" s="84">
+        <v>45</v>
+      </c>
       <c r="L413" s="23"/>
       <c r="M413" s="23"/>
       <c r="N413" s="23"/>
@@ -9671,8 +9860,8 @@
       <c r="G414" s="23"/>
       <c r="H414" s="23"/>
       <c r="I414" s="23"/>
-      <c r="J414" s="23"/>
-      <c r="K414" s="23"/>
+      <c r="J414" s="50"/>
+      <c r="K414" s="50"/>
       <c r="L414" s="23"/>
       <c r="M414" s="23"/>
       <c r="N414" s="23"/>
@@ -9855,18 +10044,26 @@
       <c r="G467" s="23"/>
       <c r="H467" s="23"/>
       <c r="I467" s="23"/>
-      <c r="J467" s="23"/>
-      <c r="K467" s="23"/>
+      <c r="J467" s="103" t="s">
+        <v>273</v>
+      </c>
+      <c r="K467" s="103" t="s">
+        <v>419</v>
+      </c>
       <c r="L467" s="23"/>
     </row>
-    <row r="468" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="468" spans="5:12" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E468" s="46"/>
       <c r="F468" s="23"/>
       <c r="G468" s="23"/>
       <c r="H468" s="23"/>
       <c r="I468" s="23"/>
-      <c r="J468" s="23"/>
-      <c r="K468" s="23"/>
+      <c r="J468" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="K468" s="84">
+        <v>45</v>
+      </c>
       <c r="L468" s="23"/>
     </row>
     <row r="469" spans="5:12" x14ac:dyDescent="0.15">
@@ -9875,8 +10072,8 @@
       <c r="G469" s="23"/>
       <c r="H469" s="23"/>
       <c r="I469" s="23"/>
-      <c r="J469" s="23"/>
-      <c r="K469" s="23"/>
+      <c r="J469" s="102"/>
+      <c r="K469" s="84"/>
       <c r="L469" s="23"/>
     </row>
     <row r="470" spans="5:12" x14ac:dyDescent="0.15">
@@ -10033,18 +10230,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J202:K202"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="J200:K200"/>
     <mergeCell ref="J205:K205"/>
     <mergeCell ref="J206:K206"/>
     <mergeCell ref="J207:K207"/>
     <mergeCell ref="J204:K204"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J202:K202"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10156,10 +10353,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -10172,58 +10369,58 @@
       <c r="G2" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="140"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -10757,16 +10954,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
@@ -10802,10 +10999,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -10818,54 +11015,54 @@
       <c r="G2" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="139"/>
-      <c r="C6" s="140"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -11161,30 +11358,30 @@
   <sheetData>
     <row r="1" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
     </row>
     <row r="3" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
     </row>
     <row r="4" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="147"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
@@ -11198,14 +11395,14 @@
       <c r="O5" s="51"/>
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="156"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="159"/>
     </row>
     <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -11219,14 +11416,14 @@
       <c r="O6" s="53"/>
       <c r="P6" s="53"/>
       <c r="Q6" s="53"/>
-      <c r="R6" s="152"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="157"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="160"/>
     </row>
     <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="149"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -11240,14 +11437,14 @@
       <c r="O7" s="53"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="152"/>
-      <c r="T7" s="157"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="160"/>
     </row>
     <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -11261,14 +11458,14 @@
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="157"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="160"/>
     </row>
     <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -11282,14 +11479,14 @@
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="157"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="160"/>
     </row>
     <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -11303,14 +11500,14 @@
       <c r="O10" s="53"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="157"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="160"/>
     </row>
     <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="149"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -11324,14 +11521,14 @@
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="157"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="160"/>
     </row>
     <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="149"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -11345,14 +11542,14 @@
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="157"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="160"/>
     </row>
     <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="149"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -11366,14 +11563,14 @@
       <c r="O13" s="53"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="53"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152"/>
-      <c r="T13" s="157"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="160"/>
     </row>
     <row r="14" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -11387,14 +11584,14 @@
       <c r="O14" s="53"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152"/>
-      <c r="T14" s="157"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="160"/>
     </row>
     <row r="15" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="149"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
@@ -11408,9 +11605,9 @@
       <c r="O15" s="53"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152"/>
-      <c r="T15" s="157"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="160"/>
     </row>
     <row r="16" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="52"/>
@@ -11728,9 +11925,9 @@
       <c r="T30" s="54"/>
     </row>
     <row r="31" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53"/>
@@ -11744,14 +11941,14 @@
       <c r="O31" s="53"/>
       <c r="P31" s="53"/>
       <c r="Q31" s="53"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="158"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="161"/>
     </row>
     <row r="32" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="151"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
@@ -11765,14 +11962,14 @@
       <c r="O32" s="53"/>
       <c r="P32" s="53"/>
       <c r="Q32" s="53"/>
-      <c r="R32" s="150"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="158"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="161"/>
     </row>
     <row r="33" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
@@ -11786,14 +11983,14 @@
       <c r="O33" s="53"/>
       <c r="P33" s="53"/>
       <c r="Q33" s="53"/>
-      <c r="R33" s="150"/>
-      <c r="S33" s="150"/>
-      <c r="T33" s="158"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="161"/>
     </row>
     <row r="34" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
@@ -11807,14 +12004,14 @@
       <c r="O34" s="53"/>
       <c r="P34" s="53"/>
       <c r="Q34" s="53"/>
-      <c r="R34" s="150"/>
-      <c r="S34" s="150"/>
-      <c r="T34" s="158"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="161"/>
     </row>
     <row r="35" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="151"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
@@ -11828,14 +12025,14 @@
       <c r="O35" s="53"/>
       <c r="P35" s="53"/>
       <c r="Q35" s="53"/>
-      <c r="R35" s="150"/>
-      <c r="S35" s="150"/>
-      <c r="T35" s="158"/>
+      <c r="R35" s="153"/>
+      <c r="S35" s="153"/>
+      <c r="T35" s="161"/>
     </row>
     <row r="36" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="151"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
@@ -11849,14 +12046,14 @@
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
       <c r="Q36" s="53"/>
-      <c r="R36" s="150"/>
-      <c r="S36" s="150"/>
-      <c r="T36" s="158"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="161"/>
     </row>
     <row r="37" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="151"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
@@ -11870,14 +12067,14 @@
       <c r="O37" s="53"/>
       <c r="P37" s="53"/>
       <c r="Q37" s="53"/>
-      <c r="R37" s="150"/>
-      <c r="S37" s="150"/>
-      <c r="T37" s="158"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="153"/>
+      <c r="T37" s="161"/>
     </row>
     <row r="38" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="151"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
@@ -11891,14 +12088,14 @@
       <c r="O38" s="53"/>
       <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
-      <c r="R38" s="150"/>
-      <c r="S38" s="150"/>
-      <c r="T38" s="158"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="153"/>
+      <c r="T38" s="161"/>
     </row>
     <row r="39" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="151"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -11912,14 +12109,14 @@
       <c r="O39" s="53"/>
       <c r="P39" s="53"/>
       <c r="Q39" s="53"/>
-      <c r="R39" s="150"/>
-      <c r="S39" s="150"/>
-      <c r="T39" s="158"/>
+      <c r="R39" s="153"/>
+      <c r="S39" s="153"/>
+      <c r="T39" s="161"/>
     </row>
     <row r="40" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="151"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
@@ -11933,14 +12130,14 @@
       <c r="O40" s="53"/>
       <c r="P40" s="53"/>
       <c r="Q40" s="53"/>
-      <c r="R40" s="150"/>
-      <c r="S40" s="150"/>
-      <c r="T40" s="158"/>
+      <c r="R40" s="153"/>
+      <c r="S40" s="153"/>
+      <c r="T40" s="161"/>
     </row>
     <row r="41" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
@@ -11954,9 +12151,9 @@
       <c r="O41" s="55"/>
       <c r="P41" s="55"/>
       <c r="Q41" s="55"/>
-      <c r="R41" s="159"/>
-      <c r="S41" s="159"/>
-      <c r="T41" s="160"/>
+      <c r="R41" s="162"/>
+      <c r="S41" s="162"/>
+      <c r="T41" s="163"/>
     </row>
     <row r="42" spans="2:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -11995,10 +12192,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="142"/>
+      <c r="C2" s="149"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -12016,10 +12213,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -12027,8 +12224,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -12036,8 +12233,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="139"/>
-      <c r="C5" s="140"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -12045,8 +12242,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="139"/>
-      <c r="C6" s="140"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="147"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
